--- a/bin/config/xlsx/Cooldown.xlsx
+++ b/bin/config/xlsx/Cooldown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24610" windowHeight="11890"/>
+    <workbookView windowWidth="26150" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Cooldown" sheetId="2" r:id="rId1"/>
@@ -27,18 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>dungeon_id</t>
+    <t>duration</t>
   </si>
   <si>
     <t>uint32</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>common</t>
@@ -980,7 +977,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1001,15 +998,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1017,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1025,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1033,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1041,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1049,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1057,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1065,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1073,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1081,71 +1078,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Cooldown.xlsx
+++ b/bin/config/xlsx/Cooldown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26150" windowHeight="12720"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Cooldown" sheetId="2" r:id="rId1"/>
@@ -977,10 +977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1009,75 +1009,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B20">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B21">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B22">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B23">
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B24">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B25">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B26">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B27">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B28">
         <v>3000</v>
       </c>
     </row>

--- a/bin/config/xlsx/Cooldown.xlsx
+++ b/bin/config/xlsx/Cooldown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Cooldown" sheetId="2" r:id="rId1"/>
@@ -980,10 +980,10 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
